--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_64ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_64ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1702,28 +1702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>367.3557777831584</v>
+        <v>474.9611809194286</v>
       </c>
       <c r="AB2" t="n">
-        <v>502.6323817560302</v>
+        <v>649.8628415424196</v>
       </c>
       <c r="AC2" t="n">
-        <v>454.6618526902123</v>
+        <v>587.840844033837</v>
       </c>
       <c r="AD2" t="n">
-        <v>367355.7777831584</v>
+        <v>474961.1809194286</v>
       </c>
       <c r="AE2" t="n">
-        <v>502632.3817560301</v>
+        <v>649862.8415424196</v>
       </c>
       <c r="AF2" t="n">
         <v>7.909772811251001e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.84375</v>
       </c>
       <c r="AH2" t="n">
-        <v>454661.8526902123</v>
+        <v>587840.844033837</v>
       </c>
     </row>
     <row r="3">
@@ -1808,28 +1808,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>213.2847877992062</v>
+        <v>271.9827610323753</v>
       </c>
       <c r="AB3" t="n">
-        <v>291.8256561274901</v>
+        <v>372.1388126770645</v>
       </c>
       <c r="AC3" t="n">
-        <v>263.9742250866492</v>
+        <v>336.6224066952686</v>
       </c>
       <c r="AD3" t="n">
-        <v>213284.7877992062</v>
+        <v>271982.7610323753</v>
       </c>
       <c r="AE3" t="n">
-        <v>291825.6561274901</v>
+        <v>372138.8126770645</v>
       </c>
       <c r="AF3" t="n">
         <v>1.189696368370697e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.19010416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>263974.2250866492</v>
+        <v>336622.4066952686</v>
       </c>
     </row>
     <row r="4">
@@ -1914,28 +1914,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>213.3346122753088</v>
+        <v>272.0325855084779</v>
       </c>
       <c r="AB4" t="n">
-        <v>291.8938281737944</v>
+        <v>372.2069847233687</v>
       </c>
       <c r="AC4" t="n">
-        <v>264.0358908885343</v>
+        <v>336.6840724971537</v>
       </c>
       <c r="AD4" t="n">
-        <v>213334.6122753088</v>
+        <v>272032.5855084779</v>
       </c>
       <c r="AE4" t="n">
-        <v>291893.8281737944</v>
+        <v>372206.9847233688</v>
       </c>
       <c r="AF4" t="n">
         <v>1.191287483901153e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.17708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>264035.8908885343</v>
+        <v>336684.0724971537</v>
       </c>
     </row>
   </sheetData>
@@ -2211,28 +2211,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>274.9147205135022</v>
+        <v>352.2917939066627</v>
       </c>
       <c r="AB2" t="n">
-        <v>376.1504489880656</v>
+        <v>482.0211744401436</v>
       </c>
       <c r="AC2" t="n">
-        <v>340.2511780671148</v>
+        <v>436.0177500725428</v>
       </c>
       <c r="AD2" t="n">
-        <v>274914.7205135023</v>
+        <v>352291.7939066627</v>
       </c>
       <c r="AE2" t="n">
-        <v>376150.4489880656</v>
+        <v>482021.1744401436</v>
       </c>
       <c r="AF2" t="n">
         <v>1.043133176644624e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.46484375</v>
       </c>
       <c r="AH2" t="n">
-        <v>340251.1780671148</v>
+        <v>436017.7500725428</v>
       </c>
     </row>
     <row r="3">
@@ -2317,28 +2317,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>208.0599318172895</v>
+        <v>275.7222906415635</v>
       </c>
       <c r="AB3" t="n">
-        <v>284.6767776686573</v>
+        <v>377.2554020647588</v>
       </c>
       <c r="AC3" t="n">
-        <v>257.5076255544113</v>
+        <v>341.2506759729796</v>
       </c>
       <c r="AD3" t="n">
-        <v>208059.9318172894</v>
+        <v>275722.2906415635</v>
       </c>
       <c r="AE3" t="n">
-        <v>284676.7776686574</v>
+        <v>377255.4020647588</v>
       </c>
       <c r="AF3" t="n">
         <v>1.275421221998843e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.46354166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>257507.6255544113</v>
+        <v>341250.6759729796</v>
       </c>
     </row>
   </sheetData>
@@ -2614,28 +2614,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>233.5219420728351</v>
+        <v>308.2984761829458</v>
       </c>
       <c r="AB2" t="n">
-        <v>319.5150234048911</v>
+        <v>421.8275762823543</v>
       </c>
       <c r="AC2" t="n">
-        <v>289.0209580133749</v>
+        <v>381.5689444406873</v>
       </c>
       <c r="AD2" t="n">
-        <v>233521.9420728351</v>
+        <v>308298.4761829458</v>
       </c>
       <c r="AE2" t="n">
-        <v>319515.0234048911</v>
+        <v>421827.5762823543</v>
       </c>
       <c r="AF2" t="n">
         <v>1.492217171775242e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.06119791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>289020.9580133749</v>
+        <v>381568.9444406874</v>
       </c>
     </row>
   </sheetData>
@@ -2911,28 +2911,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>213.228600027219</v>
+        <v>289.0549956362719</v>
       </c>
       <c r="AB2" t="n">
-        <v>291.7487775390276</v>
+        <v>395.4977972359502</v>
       </c>
       <c r="AC2" t="n">
-        <v>263.9046836827698</v>
+        <v>357.752042552395</v>
       </c>
       <c r="AD2" t="n">
-        <v>213228.600027219</v>
+        <v>289054.9956362719</v>
       </c>
       <c r="AE2" t="n">
-        <v>291748.7775390276</v>
+        <v>395497.7972359502</v>
       </c>
       <c r="AF2" t="n">
         <v>1.420116951938331e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.61588541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>263904.6836827698</v>
+        <v>357752.042552395</v>
       </c>
     </row>
   </sheetData>
@@ -3208,28 +3208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>257.7804611870102</v>
+        <v>340.9743300999035</v>
       </c>
       <c r="AB2" t="n">
-        <v>352.7065994672204</v>
+        <v>466.5361211684707</v>
       </c>
       <c r="AC2" t="n">
-        <v>319.0447766409957</v>
+        <v>422.0105685517096</v>
       </c>
       <c r="AD2" t="n">
-        <v>257780.4611870102</v>
+        <v>340974.3300999035</v>
       </c>
       <c r="AE2" t="n">
-        <v>352706.5994672204</v>
+        <v>466536.1211684707</v>
       </c>
       <c r="AF2" t="n">
         <v>1.519490149481071e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.06640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>319044.7766409958</v>
+        <v>422010.5685517096</v>
       </c>
     </row>
   </sheetData>
@@ -3505,28 +3505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>298.0123102009151</v>
+        <v>385.2911832638708</v>
       </c>
       <c r="AB2" t="n">
-        <v>407.753590192124</v>
+        <v>527.1723947889868</v>
       </c>
       <c r="AC2" t="n">
-        <v>368.8381598299451</v>
+        <v>476.8598013214282</v>
       </c>
       <c r="AD2" t="n">
-        <v>298012.3102009151</v>
+        <v>385291.1832638708</v>
       </c>
       <c r="AE2" t="n">
-        <v>407753.590192124</v>
+        <v>527172.3947889868</v>
       </c>
       <c r="AF2" t="n">
         <v>9.731183929648695e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.22005208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>368838.1598299451</v>
+        <v>476859.8013214282</v>
       </c>
     </row>
     <row r="3">
@@ -3611,28 +3611,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>209.4864001479018</v>
+        <v>277.3474158132065</v>
       </c>
       <c r="AB3" t="n">
-        <v>286.6285345699415</v>
+        <v>379.4789700200632</v>
       </c>
       <c r="AC3" t="n">
-        <v>259.2731095163455</v>
+        <v>343.262029723427</v>
       </c>
       <c r="AD3" t="n">
-        <v>209486.4001479018</v>
+        <v>277347.4158132065</v>
       </c>
       <c r="AE3" t="n">
-        <v>286628.5345699415</v>
+        <v>379478.9700200632</v>
       </c>
       <c r="AF3" t="n">
         <v>1.250453531199011e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.40494791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>259273.1095163455</v>
+        <v>343262.029723427</v>
       </c>
     </row>
   </sheetData>
@@ -3908,28 +3908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>272.6582819831915</v>
+        <v>364.5534656144765</v>
       </c>
       <c r="AB2" t="n">
-        <v>373.0630902438522</v>
+        <v>498.798134617552</v>
       </c>
       <c r="AC2" t="n">
-        <v>337.4584725083139</v>
+        <v>451.1935407172309</v>
       </c>
       <c r="AD2" t="n">
-        <v>272658.2819831915</v>
+        <v>364553.4656144765</v>
       </c>
       <c r="AE2" t="n">
-        <v>373063.0902438522</v>
+        <v>498798.134617552</v>
       </c>
       <c r="AF2" t="n">
         <v>1.517714910828808e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.79166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>337458.4725083139</v>
+        <v>451193.5407172309</v>
       </c>
     </row>
   </sheetData>
@@ -4205,28 +4205,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>221.6487508105448</v>
+        <v>288.7005374879945</v>
       </c>
       <c r="AB2" t="n">
-        <v>303.2695993116037</v>
+        <v>395.0128119598871</v>
       </c>
       <c r="AC2" t="n">
-        <v>274.3259743949499</v>
+        <v>357.3133435903983</v>
       </c>
       <c r="AD2" t="n">
-        <v>221648.7508105448</v>
+        <v>288700.5374879945</v>
       </c>
       <c r="AE2" t="n">
-        <v>303269.5993116037</v>
+        <v>395012.8119598872</v>
       </c>
       <c r="AF2" t="n">
         <v>1.288061470529797e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.49869791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>274325.9743949499</v>
+        <v>357313.3435903983</v>
       </c>
     </row>
     <row r="3">
@@ -4311,28 +4311,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>205.442433760383</v>
+        <v>282.0816531915683</v>
       </c>
       <c r="AB3" t="n">
-        <v>281.0954013513353</v>
+        <v>385.9565624609504</v>
       </c>
       <c r="AC3" t="n">
-        <v>254.2680507663201</v>
+        <v>349.121409833114</v>
       </c>
       <c r="AD3" t="n">
-        <v>205442.433760383</v>
+        <v>282081.6531915683</v>
       </c>
       <c r="AE3" t="n">
-        <v>281095.4013513353</v>
+        <v>385956.5624609503</v>
       </c>
       <c r="AF3" t="n">
         <v>1.345054325584525e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.88020833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>254268.0507663201</v>
+        <v>349121.409833114</v>
       </c>
     </row>
   </sheetData>
@@ -4608,28 +4608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>252.1583676910914</v>
+        <v>329.3670911585341</v>
       </c>
       <c r="AB2" t="n">
-        <v>345.0142031168483</v>
+        <v>450.6545847736474</v>
       </c>
       <c r="AC2" t="n">
-        <v>312.0865318019545</v>
+        <v>407.644743700532</v>
       </c>
       <c r="AD2" t="n">
-        <v>252158.3676910914</v>
+        <v>329367.0911585341</v>
       </c>
       <c r="AE2" t="n">
-        <v>345014.2031168482</v>
+        <v>450654.5847736474</v>
       </c>
       <c r="AF2" t="n">
         <v>1.121788363225248e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.71614583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>312086.5318019545</v>
+        <v>407644.743700532</v>
       </c>
     </row>
     <row r="3">
@@ -4714,28 +4714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>207.1527660808832</v>
+        <v>274.7103991148954</v>
       </c>
       <c r="AB3" t="n">
-        <v>283.4355534867793</v>
+        <v>375.8708874364678</v>
       </c>
       <c r="AC3" t="n">
-        <v>256.3848620663821</v>
+        <v>339.9982974776343</v>
       </c>
       <c r="AD3" t="n">
-        <v>207152.7660808832</v>
+        <v>274710.3991148954</v>
       </c>
       <c r="AE3" t="n">
-        <v>283435.5534867793</v>
+        <v>375870.8874364678</v>
       </c>
       <c r="AF3" t="n">
         <v>1.295928990542543e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.60026041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>256384.8620663821</v>
+        <v>339998.2974776343</v>
       </c>
     </row>
   </sheetData>
@@ -5011,28 +5011,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>339.1995823834191</v>
+        <v>436.7937667323501</v>
       </c>
       <c r="AB2" t="n">
-        <v>464.1078330464333</v>
+        <v>597.6405016241836</v>
       </c>
       <c r="AC2" t="n">
-        <v>419.8140328399157</v>
+        <v>540.602530942883</v>
       </c>
       <c r="AD2" t="n">
-        <v>339199.582383419</v>
+        <v>436793.7667323501</v>
       </c>
       <c r="AE2" t="n">
-        <v>464107.8330464333</v>
+        <v>597640.5016241836</v>
       </c>
       <c r="AF2" t="n">
         <v>8.472611896249369e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.91276041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>419814.0328399157</v>
+        <v>540602.530942883</v>
       </c>
     </row>
     <row r="3">
@@ -5117,28 +5117,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>211.7191776642987</v>
+        <v>279.9575372752144</v>
       </c>
       <c r="AB3" t="n">
-        <v>289.6835192710662</v>
+        <v>383.0502533548143</v>
       </c>
       <c r="AC3" t="n">
-        <v>262.0365307652938</v>
+        <v>346.4924747890373</v>
       </c>
       <c r="AD3" t="n">
-        <v>211719.1776642987</v>
+        <v>279957.5372752144</v>
       </c>
       <c r="AE3" t="n">
-        <v>289683.5192710662</v>
+        <v>383050.2533548144</v>
       </c>
       <c r="AF3" t="n">
         <v>1.211688101310527e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.22265625</v>
       </c>
       <c r="AH3" t="n">
-        <v>262036.5307652938</v>
+        <v>346492.4747890373</v>
       </c>
     </row>
     <row r="4">
@@ -5223,28 +5223,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>212.1038573733958</v>
+        <v>280.3422169843114</v>
       </c>
       <c r="AB4" t="n">
-        <v>290.2098550199235</v>
+        <v>383.5765891036719</v>
       </c>
       <c r="AC4" t="n">
-        <v>262.5126337689972</v>
+        <v>346.9685777927408</v>
       </c>
       <c r="AD4" t="n">
-        <v>212103.8573733958</v>
+        <v>280342.2169843115</v>
       </c>
       <c r="AE4" t="n">
-        <v>290209.8550199235</v>
+        <v>383576.589103672</v>
       </c>
       <c r="AF4" t="n">
         <v>1.211122029927481e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.22916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>262512.6337689972</v>
+        <v>346968.5777927408</v>
       </c>
     </row>
   </sheetData>
@@ -5520,28 +5520,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>213.7138258413901</v>
+        <v>280.2846999581307</v>
       </c>
       <c r="AB2" t="n">
-        <v>292.4126849046283</v>
+        <v>383.4978917709794</v>
       </c>
       <c r="AC2" t="n">
-        <v>264.5052286611976</v>
+        <v>346.897391223028</v>
       </c>
       <c r="AD2" t="n">
-        <v>213713.8258413901</v>
+        <v>280284.6999581307</v>
       </c>
       <c r="AE2" t="n">
-        <v>292412.6849046283</v>
+        <v>383497.8917709794</v>
       </c>
       <c r="AF2" t="n">
         <v>1.39229901349184e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.34895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>264505.2286611976</v>
+        <v>346897.391223028</v>
       </c>
     </row>
     <row r="3">
@@ -5626,28 +5626,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>214.1183699474867</v>
+        <v>280.6892440642274</v>
       </c>
       <c r="AB3" t="n">
-        <v>292.9661999978158</v>
+        <v>384.0514068641672</v>
       </c>
       <c r="AC3" t="n">
-        <v>265.0059170507548</v>
+        <v>347.3980796125852</v>
       </c>
       <c r="AD3" t="n">
-        <v>214118.3699474867</v>
+        <v>280689.2440642273</v>
       </c>
       <c r="AE3" t="n">
-        <v>292966.1999978158</v>
+        <v>384051.4068641672</v>
       </c>
       <c r="AF3" t="n">
         <v>1.392605835963851e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.34244791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>265005.9170507548</v>
+        <v>347398.0796125852</v>
       </c>
     </row>
   </sheetData>
@@ -5923,28 +5923,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>223.2606896598287</v>
+        <v>298.3666713825207</v>
       </c>
       <c r="AB2" t="n">
-        <v>305.4751251589158</v>
+        <v>408.2384427941088</v>
       </c>
       <c r="AC2" t="n">
-        <v>276.3210079508701</v>
+        <v>369.2767387800913</v>
       </c>
       <c r="AD2" t="n">
-        <v>223260.6896598287</v>
+        <v>298366.6713825207</v>
       </c>
       <c r="AE2" t="n">
-        <v>305475.1251589158</v>
+        <v>408238.4427941088</v>
       </c>
       <c r="AF2" t="n">
         <v>1.467905756144248e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.47526041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>276321.0079508701</v>
+        <v>369276.7387800912</v>
       </c>
     </row>
   </sheetData>
@@ -9617,28 +9617,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>235.6261329774889</v>
+        <v>319.3456743175817</v>
       </c>
       <c r="AB2" t="n">
-        <v>322.3940702309879</v>
+        <v>436.9428401381481</v>
       </c>
       <c r="AC2" t="n">
-        <v>291.6252326511577</v>
+        <v>395.2416287284902</v>
       </c>
       <c r="AD2" t="n">
-        <v>235626.1329774889</v>
+        <v>319345.6743175817</v>
       </c>
       <c r="AE2" t="n">
-        <v>322394.070230988</v>
+        <v>436942.8401381482</v>
       </c>
       <c r="AF2" t="n">
         <v>1.508646418854704e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.90755208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>291625.2326511577</v>
+        <v>395241.6287284903</v>
       </c>
     </row>
   </sheetData>
@@ -9914,28 +9914,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>313.0097279277479</v>
+        <v>422.3881479352345</v>
       </c>
       <c r="AB2" t="n">
-        <v>428.2737187653505</v>
+        <v>577.9300984549222</v>
       </c>
       <c r="AC2" t="n">
-        <v>387.3998761323242</v>
+        <v>522.7732609883712</v>
       </c>
       <c r="AD2" t="n">
-        <v>313009.7279277479</v>
+        <v>422388.1479352345</v>
       </c>
       <c r="AE2" t="n">
-        <v>428273.7187653505</v>
+        <v>577930.0984549222</v>
       </c>
       <c r="AF2" t="n">
         <v>1.469196581366043e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.96223958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>387399.8761323242</v>
+        <v>522773.2609883713</v>
       </c>
     </row>
   </sheetData>
@@ -10211,28 +10211,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>240.5326995887457</v>
+        <v>307.8425915453455</v>
       </c>
       <c r="AB2" t="n">
-        <v>329.107451130948</v>
+        <v>421.2038148089788</v>
       </c>
       <c r="AC2" t="n">
-        <v>297.6978979003169</v>
+        <v>381.004713886876</v>
       </c>
       <c r="AD2" t="n">
-        <v>240532.6995887457</v>
+        <v>307842.5915453455</v>
       </c>
       <c r="AE2" t="n">
-        <v>329107.451130948</v>
+        <v>421203.8148089788</v>
       </c>
       <c r="AF2" t="n">
         <v>1.206449478185895e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.01953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>297697.8979003169</v>
+        <v>381004.713886876</v>
       </c>
     </row>
     <row r="3">
@@ -10317,28 +10317,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>206.2567052088039</v>
+        <v>273.5997515543268</v>
       </c>
       <c r="AB3" t="n">
-        <v>282.2095234701853</v>
+        <v>374.3512504457856</v>
       </c>
       <c r="AC3" t="n">
-        <v>255.2758426338276</v>
+        <v>338.623692508519</v>
       </c>
       <c r="AD3" t="n">
-        <v>206256.7052088039</v>
+        <v>273599.7515543267</v>
       </c>
       <c r="AE3" t="n">
-        <v>282209.5234701853</v>
+        <v>374351.2504457856</v>
       </c>
       <c r="AF3" t="n">
         <v>1.320307486533772e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.72395833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>255275.8426338276</v>
+        <v>338623.6925085189</v>
       </c>
     </row>
   </sheetData>
@@ -10614,28 +10614,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>322.4553614737367</v>
+        <v>410.0150008026716</v>
       </c>
       <c r="AB2" t="n">
-        <v>441.1976512949144</v>
+        <v>561.0006126834235</v>
       </c>
       <c r="AC2" t="n">
-        <v>399.0903666801198</v>
+        <v>507.4595015782218</v>
       </c>
       <c r="AD2" t="n">
-        <v>322455.3614737367</v>
+        <v>410015.0008026716</v>
       </c>
       <c r="AE2" t="n">
-        <v>441197.6512949144</v>
+        <v>561000.6126834234</v>
       </c>
       <c r="AF2" t="n">
         <v>9.090819511729478e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.01432291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>399090.3666801198</v>
+        <v>507459.5015782218</v>
       </c>
     </row>
     <row r="3">
@@ -10720,28 +10720,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>210.2288619528042</v>
+        <v>278.281678277041</v>
       </c>
       <c r="AB3" t="n">
-        <v>287.6444035665116</v>
+        <v>380.7572691398325</v>
       </c>
       <c r="AC3" t="n">
-        <v>260.1920254016643</v>
+        <v>344.4183297693097</v>
       </c>
       <c r="AD3" t="n">
-        <v>210228.8619528042</v>
+        <v>278281.678277041</v>
       </c>
       <c r="AE3" t="n">
-        <v>287644.4035665116</v>
+        <v>380757.2691398325</v>
       </c>
       <c r="AF3" t="n">
         <v>1.233524093016575e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.27473958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>260192.0254016643</v>
+        <v>344418.3297693097</v>
       </c>
     </row>
   </sheetData>
@@ -11017,28 +11017,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>403.1488536832117</v>
+        <v>538.593894049269</v>
       </c>
       <c r="AB2" t="n">
-        <v>551.606047281546</v>
+        <v>736.927926923843</v>
       </c>
       <c r="AC2" t="n">
-        <v>498.9615403129442</v>
+        <v>666.596559863072</v>
       </c>
       <c r="AD2" t="n">
-        <v>403148.8536832117</v>
+        <v>538593.894049269</v>
       </c>
       <c r="AE2" t="n">
-        <v>551606.0472815461</v>
+        <v>736927.926923843</v>
       </c>
       <c r="AF2" t="n">
         <v>1.343887228452547e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.56380208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>498961.5403129442</v>
+        <v>666596.559863072</v>
       </c>
     </row>
   </sheetData>
@@ -11314,28 +11314,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>222.904463474207</v>
+        <v>288.9730641088879</v>
       </c>
       <c r="AB2" t="n">
-        <v>304.9877207761584</v>
+        <v>395.3856949056195</v>
       </c>
       <c r="AC2" t="n">
-        <v>275.8801207583266</v>
+        <v>357.6506391111345</v>
       </c>
       <c r="AD2" t="n">
-        <v>222904.463474207</v>
+        <v>288973.0641088879</v>
       </c>
       <c r="AE2" t="n">
-        <v>304987.7207761584</v>
+        <v>395385.6949056195</v>
       </c>
       <c r="AF2" t="n">
         <v>1.443645076345795e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.00651041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>275880.1207583266</v>
+        <v>357650.6391111345</v>
       </c>
     </row>
   </sheetData>
@@ -11611,28 +11611,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>215.9049399148205</v>
+        <v>282.7222557509741</v>
       </c>
       <c r="AB2" t="n">
-        <v>295.4106638450251</v>
+        <v>386.8330631441197</v>
       </c>
       <c r="AC2" t="n">
-        <v>267.2170846992136</v>
+        <v>349.9142585212582</v>
       </c>
       <c r="AD2" t="n">
-        <v>215904.9399148205</v>
+        <v>282722.2557509741</v>
       </c>
       <c r="AE2" t="n">
-        <v>295410.6638450251</v>
+        <v>386833.0631441197</v>
       </c>
       <c r="AF2" t="n">
         <v>1.351893633699778e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.26432291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>267217.0846992136</v>
+        <v>349914.2585212582</v>
       </c>
     </row>
     <row r="3">
@@ -11717,28 +11717,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>214.3238507592527</v>
+        <v>281.1411665954062</v>
       </c>
       <c r="AB3" t="n">
-        <v>293.2473479096475</v>
+        <v>384.669747208741</v>
       </c>
       <c r="AC3" t="n">
-        <v>265.2602326004749</v>
+        <v>347.9574064225191</v>
       </c>
       <c r="AD3" t="n">
-        <v>214323.8507592527</v>
+        <v>281141.1665954062</v>
       </c>
       <c r="AE3" t="n">
-        <v>293247.3479096475</v>
+        <v>384669.747208741</v>
       </c>
       <c r="AF3" t="n">
         <v>1.369342200594687e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.08203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>265260.2326004748</v>
+        <v>347957.4064225191</v>
       </c>
     </row>
   </sheetData>
